--- a/stroopdata.xlsx
+++ b/stroopdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Congruent</t>
   </si>
@@ -32,10 +32,6 @@
   </si>
   <si>
     <t>Congruent VS Incongruent</t>
-  </si>
-  <si>
-    <t>x-y</t>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <r>
@@ -72,6 +68,18 @@
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Sdx</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>x-y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Sdy</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -786,7 +794,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,44 +825,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1091,24 +1111,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84002304"/>
-        <c:axId val="84003840"/>
+        <c:axId val="82560896"/>
+        <c:axId val="82562432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84002304"/>
+        <c:axId val="82560896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84003840"/>
+        <c:crossAx val="82562432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84003840"/>
+        <c:axId val="82562432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,7 +1136,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84002304"/>
+        <c:crossAx val="82560896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1129,8 +1149,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.69130686789151352"/>
           <c:y val="0.26235345581802277"/>
-          <c:w val="0.18369313210848651"/>
-          <c:h val="0.17899679206765826"/>
+          <c:w val="0.18369313210848653"/>
+          <c:h val="0.17899679206765828"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -1138,7 +1158,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1717,7 +1737,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1738,10 +1758,10 @@
       </c>
       <c r="C1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="14"/>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
@@ -1750,11 +1770,11 @@
       <c r="B2" s="2">
         <v>19.277999999999999</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="23">
         <f>A2-B2</f>
         <v>-7.1989999999999981</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
@@ -1763,11 +1783,11 @@
       <c r="B3" s="2">
         <v>18.741</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="21">
         <f t="shared" ref="G3:G25" si="0">A3-B3</f>
         <v>-1.9499999999999993</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
@@ -1776,11 +1796,11 @@
       <c r="B4" s="2">
         <v>21.213999999999999</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="21">
         <f t="shared" si="0"/>
         <v>-11.649999999999999</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
@@ -1789,11 +1809,11 @@
       <c r="B5" s="2">
         <v>15.686999999999999</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="21">
         <f t="shared" si="0"/>
         <v>-7.0569999999999986</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
@@ -1802,11 +1822,11 @@
       <c r="B6" s="2">
         <v>22.803000000000001</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="21">
         <f t="shared" si="0"/>
         <v>-8.1340000000000003</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
@@ -1815,11 +1835,11 @@
       <c r="B7" s="2">
         <v>20.878</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="21">
         <f t="shared" si="0"/>
         <v>-8.64</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
@@ -1828,11 +1848,11 @@
       <c r="B8" s="2">
         <v>24.571999999999999</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="21">
         <f t="shared" si="0"/>
         <v>-9.879999999999999</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
@@ -1841,11 +1861,11 @@
       <c r="B9" s="2">
         <v>17.393999999999998</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="21">
         <f t="shared" si="0"/>
         <v>-8.4069999999999983</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
@@ -1854,11 +1874,11 @@
       <c r="B10" s="2">
         <v>20.762</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="21">
         <f t="shared" si="0"/>
         <v>-11.361000000000001</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
@@ -1867,11 +1887,11 @@
       <c r="B11" s="2">
         <v>26.282</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="21">
         <f t="shared" si="0"/>
         <v>-11.802</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
@@ -1880,11 +1900,11 @@
       <c r="B12" s="2">
         <v>24.524000000000001</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="21">
         <f t="shared" si="0"/>
         <v>-2.1960000000000015</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
@@ -1893,11 +1913,11 @@
       <c r="B13" s="2">
         <v>18.643999999999998</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="21">
         <f t="shared" si="0"/>
         <v>-3.3459999999999983</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
@@ -1906,11 +1926,11 @@
       <c r="B14" s="2">
         <v>17.510000000000002</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="21">
         <f t="shared" si="0"/>
         <v>-2.4370000000000012</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
@@ -1919,11 +1939,11 @@
       <c r="B15" s="2">
         <v>20.329999999999998</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="21">
         <f t="shared" si="0"/>
         <v>-3.4009999999999998</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
@@ -1932,11 +1952,11 @@
       <c r="B16" s="2">
         <v>35.255000000000003</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="21">
         <f t="shared" si="0"/>
         <v>-17.055000000000003</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
@@ -1945,11 +1965,11 @@
       <c r="B17" s="2">
         <v>22.158000000000001</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="21">
         <f t="shared" si="0"/>
         <v>-10.028</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
@@ -1958,11 +1978,11 @@
       <c r="B18" s="2">
         <v>25.138999999999999</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="21">
         <f t="shared" si="0"/>
         <v>-6.6439999999999984</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
@@ -1971,11 +1991,11 @@
       <c r="B19" s="2">
         <v>20.428999999999998</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="21">
         <f t="shared" si="0"/>
         <v>-9.7899999999999991</v>
       </c>
-      <c r="H19" s="11"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" ht="13.8" thickBot="1">
       <c r="A20" s="1">
@@ -1984,11 +2004,11 @@
       <c r="B20" s="2">
         <v>17.425000000000001</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="21">
         <f t="shared" si="0"/>
         <v>-6.0810000000000013</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
@@ -1997,17 +2017,17 @@
       <c r="B21" s="2">
         <v>34.287999999999997</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="10">
+      <c r="G21" s="21">
         <f t="shared" si="0"/>
         <v>-21.918999999999997</v>
       </c>
-      <c r="H21" s="11"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" ht="13.8" thickBot="1">
       <c r="A22" s="1">
@@ -2024,11 +2044,11 @@
         <f>AVERAGE(B2:B25)</f>
         <v>22.015916666666669</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="21">
         <f t="shared" si="0"/>
         <v>-10.949999999999998</v>
       </c>
-      <c r="H22" s="11"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" ht="13.8" thickBot="1">
       <c r="A23" s="1">
@@ -2037,11 +2057,11 @@
       <c r="B23" s="2">
         <v>17.96</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="21">
         <f t="shared" si="0"/>
         <v>-3.7270000000000003</v>
       </c>
-      <c r="H23" s="11"/>
+      <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" ht="13.8" thickBot="1">
       <c r="A24" s="1">
@@ -2050,15 +2070,15 @@
       <c r="B24" s="2">
         <v>22.058</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="G24" s="10">
+      <c r="D24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="G24" s="21">
         <f t="shared" si="0"/>
         <v>-2.347999999999999</v>
       </c>
-      <c r="H24" s="11"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" ht="13.8" thickBot="1">
       <c r="A25" s="3">
@@ -2075,91 +2095,110 @@
         <f>-7.964791667+8.020706944*0.993028635</f>
         <v>1.3353425032391897E-9</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="14">
         <f t="shared" si="0"/>
         <v>-5.1529999999999987</v>
       </c>
-      <c r="H25" s="16"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" ht="13.8" thickBot="1"/>
     <row r="27" spans="1:8" ht="13.8" thickBot="1">
-      <c r="A27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="14"/>
+      <c r="A27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="14"/>
+      <c r="D27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="17"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
+      <c r="G27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" ht="13.8" thickBot="1">
-      <c r="A28" s="13">
+      <c r="A28" s="25">
+        <f>STDEV(A2:A25)</f>
+        <v>3.559357957645187</v>
+      </c>
+      <c r="B28" s="26">
+        <f>STDEV(B2:B25)</f>
+        <v>4.7970571224691367</v>
+      </c>
+      <c r="D28" s="14">
+        <f>STDEV(G2:G25)</f>
+        <v>4.8648269103590565</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="G28" s="16">
         <f>AVERAGE(G2:G25)</f>
         <v>-7.964791666666664</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="D28" s="15">
-        <f>STDEV(G2:G25)</f>
-        <v>4.8648269103590565</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" ht="13.8" thickBot="1"/>
     <row r="30" spans="1:8" ht="13.8" thickBot="1">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="D30" s="13" t="s">
+      <c r="B30" s="19"/>
+      <c r="D30" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="G30" s="19" t="s">
+      <c r="E30" s="17"/>
+      <c r="G30" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="20"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8" ht="13.8" thickBot="1">
-      <c r="A31" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="D31" s="15">
+      <c r="A31" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="D31" s="14">
         <f>D28/POWER(24,0.5)</f>
         <v>0.9930286347783408</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="G31" s="15">
+      <c r="E31" s="15"/>
+      <c r="G31" s="14">
         <f>A28/D31</f>
-        <v>-8.0207069441099534</v>
-      </c>
-      <c r="H31" s="16"/>
+        <v>3.584345740885599</v>
+      </c>
+      <c r="H31" s="15"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="G25:H25"/>
@@ -2176,20 +2215,11 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
